--- a/dati/izdevumi.xlsx
+++ b/dati/izdevumi.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eglit\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7678F78-55CA-4BCD-9540-B802FD170C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Datums</t>
   </si>
   <si>
-    <t>Apraksts</t>
-  </si>
-  <si>
-    <t>Summa</t>
-  </si>
-  <si>
     <t>2024-05-01</t>
   </si>
   <si>
@@ -40,18 +40,12 @@
     <t>2024-05-05</t>
   </si>
   <si>
-    <t>2024-05-06</t>
-  </si>
-  <si>
     <t>2024-05-07</t>
   </si>
   <si>
     <t>2024-05-08</t>
   </si>
   <si>
-    <t>2024-05-09</t>
-  </si>
-  <si>
     <t>Rimi Jelgava</t>
   </si>
   <si>
@@ -67,23 +61,23 @@
     <t>Tele2</t>
   </si>
   <si>
-    <t>Kaut kas cits</t>
-  </si>
-  <si>
     <t>Lido</t>
   </si>
   <si>
-    <t>zara</t>
-  </si>
-  <si>
-    <t>Cits</t>
+    <t>Iegādes vieta</t>
+  </si>
+  <si>
+    <t>Izdevumi</t>
+  </si>
+  <si>
+    <t>Zara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,17 +136,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parasts" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +192,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -224,6 +226,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,9 +261,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,121 +437,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>23.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>18.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>15.99</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
         <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
